--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C3D52-18CC-5D44-9828-9FFEAF7BBDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271F55A-547E-CF4B-B427-F99EF1A4F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1883,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="5">
-        <v>0.47013888888888888</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E41" s="5">
         <v>0.50138888888888888</v>
@@ -2001,7 +2001,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="5">
-        <v>0.52847222222222223</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="E45" s="5">
         <v>0.57500000000000007</v>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271F55A-547E-CF4B-B427-F99EF1A4F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B44BAE-AC5E-1B45-88EF-5697A01822E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Corrected" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -674,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4649DF08-0D34-F84F-99D6-59A8B156BEC8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,4 +2128,1458 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3">
+        <v>18.53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>18.28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="3">
+        <v>18.25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="3">
+        <v>17.82</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18.23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3">
+        <v>18.41</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16.55</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3">
+        <v>17.05</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20.58</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3">
+        <v>21.16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3">
+        <v>20.53</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <v>20.39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23" s="6">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3">
+        <v>20.09</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="3">
+        <v>20.55</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
+        <v>22.31</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" s="6">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22.54</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="3">
+        <v>22.21</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="3">
+        <v>21.69</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3">
+        <v>21.65</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>29</v>
+      </c>
+      <c r="I32" s="3">
+        <v>21.97</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3">
+        <v>22.06</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="3">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="3">
+        <v>18.88</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" s="6">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="3">
+        <v>18.79</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="3">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" s="6">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3">
+        <v>18.95</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40" s="6">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3">
+        <v>19.13</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43" s="6">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3">
+        <v>19.52</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6">
+        <v>14</v>
+      </c>
+      <c r="I44" s="3">
+        <v>19.62</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3">
+        <v>19.45</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="3">
+        <v>18.97</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="3">
+        <v>18.97</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" s="6">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3">
+        <v>19.14</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>19.14</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B44BAE-AC5E-1B45-88EF-5697A01822E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C816DAF-A933-B742-B75A-D89EAB85A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -303,12 +303,39 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>T1_t1_ELOW_blank_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -351,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +386,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2132,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,8 +2228,8 @@
       <c r="I2" s="3">
         <v>18.53</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>52</v>
+      <c r="J2" s="4">
+        <v>-58.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2232,8 +2260,8 @@
       <c r="I3" s="3">
         <v>18.28</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
+      <c r="J3" s="4">
+        <v>-60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2264,8 +2292,8 @@
       <c r="I4" s="3">
         <v>18.059999999999999</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
+      <c r="J4" s="4">
+        <v>-60.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2294,8 +2322,8 @@
       <c r="I5" s="3">
         <v>17.61</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>54</v>
+      <c r="J5" s="4">
+        <v>-63.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2323,8 +2351,8 @@
       <c r="I6" s="3">
         <v>18.25</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>55</v>
+      <c r="J6" s="4">
+        <v>-36.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2352,8 +2380,8 @@
       <c r="I7" s="3">
         <v>17.82</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>56</v>
+      <c r="J7" s="4">
+        <v>-46.4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2381,8 +2409,8 @@
       <c r="I8" s="3">
         <v>18.23</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>57</v>
+      <c r="J8" s="4">
+        <v>-41.8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2408,8 +2436,8 @@
       <c r="I9" s="3">
         <v>18.41</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>58</v>
+      <c r="J9" s="4">
+        <v>-56.2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2440,8 +2468,8 @@
       <c r="I10" s="3">
         <v>16.55</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>59</v>
+      <c r="J10" s="4">
+        <v>-63.3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2472,8 +2500,8 @@
       <c r="I11" s="3">
         <v>16.68</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>60</v>
+      <c r="J11" s="4">
+        <v>-73.400000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2504,8 +2532,8 @@
       <c r="I12" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>61</v>
+      <c r="J12" s="4">
+        <v>-65.7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2534,8 +2562,8 @@
       <c r="I13" s="3">
         <v>16.3</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>62</v>
+      <c r="J13" s="4">
+        <v>-72.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2563,8 +2591,8 @@
       <c r="I14" s="3">
         <v>16.7</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
+      <c r="J14" s="4">
+        <v>-42.7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2592,8 +2620,8 @@
       <c r="I15" s="3">
         <v>16.329999999999998</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>64</v>
+      <c r="J15" s="4">
+        <v>-59.9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2621,8 +2649,8 @@
       <c r="I16" s="3">
         <v>17.05</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>65</v>
+      <c r="J16" s="4">
+        <v>-62.7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2648,8 +2676,8 @@
       <c r="I17" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>66</v>
+      <c r="J17" s="4">
+        <v>-70.599999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2680,8 +2708,8 @@
       <c r="I18" s="3">
         <v>20.6</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>43</v>
+      <c r="J18" s="4">
+        <v>-81</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2712,8 +2740,8 @@
       <c r="I19" s="3">
         <v>20.58</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>67</v>
+      <c r="J19" s="4">
+        <v>-74.2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2744,8 +2772,8 @@
       <c r="I20" s="3">
         <v>21.16</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>68</v>
+      <c r="J20" s="4">
+        <v>-88.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2774,8 +2802,8 @@
       <c r="I21" s="3">
         <v>20.53</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>69</v>
+      <c r="J21" s="4">
+        <v>-70.2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2803,8 +2831,8 @@
       <c r="I22" s="3">
         <v>20.39</v>
       </c>
-      <c r="J22" t="s">
-        <v>70</v>
+      <c r="J22" s="3">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2832,8 +2860,8 @@
       <c r="I23" s="3">
         <v>20.09</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>71</v>
+      <c r="J23" s="4">
+        <v>-60.7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2861,8 +2889,8 @@
       <c r="I24" s="3">
         <v>20.55</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>72</v>
+      <c r="J24" s="4">
+        <v>-59.8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2888,8 +2916,8 @@
       <c r="I25" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>73</v>
+      <c r="J25" s="4">
+        <v>-69.099999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2920,8 +2948,8 @@
       <c r="I26" s="3">
         <v>22.31</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>74</v>
+      <c r="J26" s="4">
+        <v>-81.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2952,8 +2980,8 @@
       <c r="I27" s="3">
         <v>22.54</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>75</v>
+      <c r="J27" s="4">
+        <v>-79.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2984,8 +3012,8 @@
       <c r="I28" s="3">
         <v>22.6</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>76</v>
+      <c r="J28" s="4">
+        <v>-78.400000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3014,8 +3042,8 @@
       <c r="I29" s="3">
         <v>22.21</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>77</v>
+      <c r="J29" s="4">
+        <v>-70.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3043,8 +3071,8 @@
       <c r="I30" s="3">
         <v>21.69</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>78</v>
+      <c r="J30" s="4">
+        <v>-58.9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3072,8 +3100,8 @@
       <c r="I31" s="3">
         <v>21.65</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>79</v>
+      <c r="J31" s="4">
+        <v>-61.8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3101,8 +3129,8 @@
       <c r="I32" s="3">
         <v>21.97</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>80</v>
+      <c r="J32" s="4">
+        <v>-60.3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3128,8 +3156,8 @@
       <c r="I33" s="3">
         <v>22.06</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>61</v>
+      <c r="J33" s="4">
+        <v>-65.7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3578,6 +3606,489 @@
         <v>19.14</v>
       </c>
       <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>20.88</v>
+      </c>
+      <c r="J50" s="4">
+        <v>-77.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>18</v>
+      </c>
+      <c r="I51" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="J51" s="4">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="6">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21.83</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="J53" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" s="6">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3">
+        <v>19.68</v>
+      </c>
+      <c r="J54" s="4">
+        <v>-77.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55" s="6">
+        <v>9</v>
+      </c>
+      <c r="I55" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-84.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="J56" s="4">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="J57" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="6">
+        <v>6</v>
+      </c>
+      <c r="I58" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="J58" s="4">
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59" s="6">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3">
+        <v>24.03</v>
+      </c>
+      <c r="J59" s="4">
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60" s="6">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3">
+        <v>24.23</v>
+      </c>
+      <c r="J60" s="4">
+        <v>-57.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="3">
+        <v>22.96</v>
+      </c>
+      <c r="J61" s="4">
+        <v>-58.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="6">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3">
+        <v>23.01</v>
+      </c>
+      <c r="J63" s="4">
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" s="6">
+        <v>5</v>
+      </c>
+      <c r="I64" s="3">
+        <v>22.99</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-29.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="3">
+        <v>22.79</v>
+      </c>
+      <c r="J65" s="4">
+        <v>-20.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C816DAF-A933-B742-B75A-D89EAB85A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48740AB5-8CAA-9A4C-8B43-5BFFA0579DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -334,7 +334,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -386,7 +386,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4649DF08-0D34-F84F-99D6-59A8B156BEC8}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,6 +2152,486 @@
       </c>
       <c r="J49" s="3"/>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>20.88</v>
+      </c>
+      <c r="J50" s="4">
+        <v>-77.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>18</v>
+      </c>
+      <c r="I51" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="J51" s="4">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="6">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21.83</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="J53" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" s="6">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3">
+        <v>19.68</v>
+      </c>
+      <c r="J54" s="4">
+        <v>-77.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55" s="6">
+        <v>9</v>
+      </c>
+      <c r="I55" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-84.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="J56" s="4">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="J57" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="6">
+        <v>6</v>
+      </c>
+      <c r="I58" s="3">
+        <v>23.48</v>
+      </c>
+      <c r="J58" s="4">
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59" s="6">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3">
+        <v>24.03</v>
+      </c>
+      <c r="J59" s="4">
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60" s="6">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3">
+        <v>24.23</v>
+      </c>
+      <c r="J60" s="4">
+        <v>-57.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="3">
+        <v>22.96</v>
+      </c>
+      <c r="J61" s="4">
+        <v>-58.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="6">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3">
+        <v>23.01</v>
+      </c>
+      <c r="J63" s="4">
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" s="6">
+        <v>5</v>
+      </c>
+      <c r="I64" s="3">
+        <v>22.99</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-29.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="3">
+        <v>22.79</v>
+      </c>
+      <c r="J65" s="4">
+        <v>-20.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2162,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3714,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="7">
-        <v>0.4201388888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E53" s="7">
         <v>0.47291666666666665</v>
@@ -3741,7 +4221,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="7">
-        <v>0.4236111111111111</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="E54" s="7">
         <v>0.4597222222222222</v>
@@ -3799,7 +4279,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="7">
-        <v>0.42569444444444443</v>
+        <v>0.42986111111111108</v>
       </c>
       <c r="E56" s="7">
         <v>0.46527777777777773</v>
@@ -3828,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="D57" s="7">
-        <v>0.42638888888888887</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E57" s="7">
         <v>0.46736111111111112</v>
@@ -3922,7 +4402,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="7">
-        <v>0.48680555555555555</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E60" s="7">
         <v>0.5229166666666667</v>
@@ -3954,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="7">
-        <v>0.48819444444444443</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E61" s="7">
         <v>0.51041666666666663</v>
@@ -4068,7 +4548,7 @@
         <v>32</v>
       </c>
       <c r="D65" s="7">
-        <v>0.48194444444444445</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E65" s="7">
         <v>0.51041666666666663</v>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48740AB5-8CAA-9A4C-8B43-5BFFA0579DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D8BA8E-F781-B046-B7A3-C5E3382ACD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -327,6 +328,30 @@
   </si>
   <si>
     <t>T1_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>T1_t1_LOW_blank_02</t>
   </si>
 </sst>
 </file>
@@ -701,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4649DF08-0D34-F84F-99D6-59A8B156BEC8}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:J65"/>
+      <selection activeCell="A66" sqref="A66:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2632,6 +2657,434 @@
         <v>-20.8</v>
       </c>
     </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>11</v>
+      </c>
+      <c r="I66" s="3">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>19</v>
+      </c>
+      <c r="I67" s="3">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" s="6">
+        <v>29</v>
+      </c>
+      <c r="I68" s="3">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="I69" s="3">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70" s="6">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" s="6">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74" s="6">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75" s="6">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6">
+        <v>11</v>
+      </c>
+      <c r="I78" s="3">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="6">
+        <v>19</v>
+      </c>
+      <c r="I79" s="3">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" s="6">
+        <v>29</v>
+      </c>
+      <c r="I80" s="3">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>21.61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4568,7 +5021,508 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>11</v>
+      </c>
+      <c r="I66" s="3">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>19</v>
+      </c>
+      <c r="I67" s="3">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" s="6">
+        <v>29</v>
+      </c>
+      <c r="I68" s="3">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="I69" s="3">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70" s="6">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" s="6">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74" s="6">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75" s="6">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6">
+        <v>11</v>
+      </c>
+      <c r="I78" s="3">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="6">
+        <v>19</v>
+      </c>
+      <c r="I79" s="3">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" s="6">
+        <v>29</v>
+      </c>
+      <c r="I80" s="3">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332891D4-744D-2E47-BA2A-314E16CDB0F3}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D8BA8E-F781-B046-B7A3-C5E3382ACD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1FD1C3-969E-174B-982D-0BE583931375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="114">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -352,6 +352,30 @@
   </si>
   <si>
     <t>T1_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_02</t>
   </si>
 </sst>
 </file>
@@ -726,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4649DF08-0D34-F84F-99D6-59A8B156BEC8}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:I81"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3085,6 +3109,434 @@
         <v>21.61</v>
       </c>
     </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>4</v>
+      </c>
+      <c r="I82" s="3">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="6">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84" s="6">
+        <v>28</v>
+      </c>
+      <c r="I84" s="3">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="I85" s="3">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86" s="6">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3">
+        <v>20.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87" s="6">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88" s="6">
+        <v>14</v>
+      </c>
+      <c r="I88" s="3">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" s="6">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91" s="6">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92" s="6">
+        <v>14</v>
+      </c>
+      <c r="I92" s="3">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>12</v>
+      </c>
+      <c r="I95" s="3">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96" s="6">
+        <v>28</v>
+      </c>
+      <c r="I96" s="3">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3">
+        <v>21.08</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5449,25 +5901,432 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>4</v>
+      </c>
+      <c r="I82" s="3">
+        <v>20.84</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="6">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3">
+        <v>20.85</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84" s="6">
+        <v>28</v>
+      </c>
+      <c r="I84" s="3">
+        <v>21.04</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="I85" s="3">
+        <v>20.75</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86" s="6">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3">
+        <v>20.53</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87" s="6">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3">
+        <v>20.62</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88" s="6">
+        <v>14</v>
+      </c>
+      <c r="I88" s="3">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" s="6">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91" s="6">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92" s="6">
+        <v>14</v>
+      </c>
+      <c r="I92" s="3">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>12</v>
+      </c>
+      <c r="I95" s="3">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96" s="6">
+        <v>28</v>
+      </c>
+      <c r="I96" s="3">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3">
+        <v>21.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5476,52 +6335,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332891D4-744D-2E47-BA2A-314E16CDB0F3}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:A12"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1FD1C3-969E-174B-982D-0BE583931375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8B5501-AD46-6B43-B1A4-70D595D79000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="186">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -376,6 +376,222 @@
   </si>
   <si>
     <t>T1_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>PI_t1_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t1_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t1_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t1_ELOW_blank</t>
+  </si>
+  <si>
+    <t>PI_t2_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t2_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t2_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t3_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t3_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t4_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t3_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t4_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t4_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t5_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t5_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t5_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t6_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t6_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t6_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t7_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t7_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t7_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t8_ELOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t8_ELOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t8_ELOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t1_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t1_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t1_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t1_LOW_blank</t>
+  </si>
+  <si>
+    <t>PI_t2_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t2_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t2_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t3_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t3_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t3_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t4_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t4_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t4_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t5_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t5_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t5_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t6_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t6_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t6_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t7_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t7_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t7_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t8_LOW_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t8_LOW_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t8_LOW_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t1_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t1_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t1_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t1_AMB_blank</t>
+  </si>
+  <si>
+    <t>PI_t2_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t2_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t2_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t3_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t3_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t3_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t4_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t4_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t4_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t5_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t5_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t5_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t6_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t6_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t6_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>PI_t7_AMB_Tile_1</t>
+  </si>
+  <si>
+    <t>PI_t7_AMB_Tile_2</t>
+  </si>
+  <si>
+    <t>PI_t7_AMB_Tile_3</t>
   </si>
 </sst>
 </file>
@@ -427,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,6 +652,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3545,13 +3762,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="10.83203125" style="8"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4573,7 +4796,6 @@
       <c r="I34" s="3">
         <v>19.010000000000002</v>
       </c>
-      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -4603,7 +4825,6 @@
       <c r="I35" s="3">
         <v>18.88</v>
       </c>
-      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -4633,7 +4854,6 @@
       <c r="I36" s="3">
         <v>18.920000000000002</v>
       </c>
-      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -4661,7 +4881,6 @@
       <c r="I37" s="3">
         <v>18.79</v>
       </c>
-      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -4688,7 +4907,6 @@
       <c r="I38" s="3">
         <v>19.149999999999999</v>
       </c>
-      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -4715,7 +4933,6 @@
       <c r="I39" s="3">
         <v>18.95</v>
       </c>
-      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -4742,7 +4959,6 @@
       <c r="I40" s="3">
         <v>19.13</v>
       </c>
-      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -4767,7 +4983,6 @@
       <c r="I41" s="3">
         <v>18.940000000000001</v>
       </c>
-      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -4797,7 +5012,6 @@
       <c r="I42" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -4827,7 +5041,6 @@
       <c r="I43" s="3">
         <v>19.52</v>
       </c>
-      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -4857,7 +5070,6 @@
       <c r="I44" s="3">
         <v>19.62</v>
       </c>
-      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -4885,7 +5097,6 @@
       <c r="I45" s="3">
         <v>19.45</v>
       </c>
-      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -4912,7 +5123,6 @@
       <c r="I46" s="3">
         <v>18.97</v>
       </c>
-      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -4939,7 +5149,6 @@
       <c r="I47" s="3">
         <v>18.97</v>
       </c>
-      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -4966,7 +5175,6 @@
       <c r="I48" s="3">
         <v>19.14</v>
       </c>
-      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -4987,10 +5195,10 @@
       <c r="G49">
         <v>4</v>
       </c>
+      <c r="H49"/>
       <c r="I49" s="3">
         <v>19.14</v>
       </c>
-      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -5581,6 +5789,7 @@
       <c r="G69">
         <v>4</v>
       </c>
+      <c r="H69"/>
       <c r="I69" s="3">
         <v>20.25</v>
       </c>
@@ -5682,6 +5891,7 @@
       <c r="G73">
         <v>8</v>
       </c>
+      <c r="H73"/>
       <c r="I73" s="3">
         <v>19.420000000000002</v>
       </c>
@@ -5795,6 +6005,7 @@
       <c r="G77">
         <v>8</v>
       </c>
+      <c r="H77"/>
       <c r="I77" s="3">
         <v>22.19</v>
       </c>
@@ -5896,6 +6107,7 @@
       <c r="G81">
         <v>4</v>
       </c>
+      <c r="H81"/>
       <c r="I81" s="3">
         <v>21.61</v>
       </c>
@@ -6009,6 +6221,7 @@
       <c r="G85">
         <v>4</v>
       </c>
+      <c r="H85"/>
       <c r="I85" s="3">
         <v>20.75</v>
       </c>
@@ -6110,6 +6323,7 @@
       <c r="G89">
         <v>8</v>
       </c>
+      <c r="H89"/>
       <c r="I89" s="3">
         <v>20.57</v>
       </c>
@@ -6223,6 +6437,7 @@
       <c r="G93">
         <v>8</v>
       </c>
+      <c r="H93"/>
       <c r="I93" s="3">
         <v>22.23</v>
       </c>
@@ -6305,7 +6520,7 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45071</v>
       </c>
@@ -6324,28 +6539,2230 @@
       <c r="G97">
         <v>4</v>
       </c>
+      <c r="H97"/>
       <c r="I97" s="3">
         <v>21.08</v>
       </c>
     </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" s="3">
+        <v>21.03</v>
+      </c>
+      <c r="J98" s="3">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="I99" s="3">
+        <v>21.06</v>
+      </c>
+      <c r="J99" s="3">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100" s="3">
+        <v>21.09</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101" s="3">
+        <v>21.01</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" s="3">
+        <v>21.09</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>9</v>
+      </c>
+      <c r="I103" s="3">
+        <v>21.15</v>
+      </c>
+      <c r="J103" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>18</v>
+      </c>
+      <c r="I104" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="J104" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105" s="3">
+        <v>22.53</v>
+      </c>
+      <c r="J105" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>9</v>
+      </c>
+      <c r="I106" s="3">
+        <v>22.23</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>18</v>
+      </c>
+      <c r="I107" s="3">
+        <v>22.44</v>
+      </c>
+      <c r="J107" s="3">
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" s="3">
+        <v>23.04</v>
+      </c>
+      <c r="J108" s="3">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="I109" s="3">
+        <v>23.03</v>
+      </c>
+      <c r="J109" s="3">
+        <v>-31.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>18</v>
+      </c>
+      <c r="I110" s="3">
+        <v>23.27</v>
+      </c>
+      <c r="J110" s="3">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="J111" s="3">
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>9</v>
+      </c>
+      <c r="I112" s="3">
+        <v>23.83</v>
+      </c>
+      <c r="J112" s="3">
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>18</v>
+      </c>
+      <c r="I113" s="3">
+        <v>23.64</v>
+      </c>
+      <c r="J113" s="3">
+        <v>-27.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114" s="3">
+        <v>23.24</v>
+      </c>
+      <c r="J114" s="3">
+        <v>-44.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>9</v>
+      </c>
+      <c r="I115" s="3">
+        <v>22.88</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-46.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>18</v>
+      </c>
+      <c r="I116" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="J117" s="3">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>9</v>
+      </c>
+      <c r="I118" s="3">
+        <v>22.15</v>
+      </c>
+      <c r="J118" s="3">
+        <v>-14.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>18</v>
+      </c>
+      <c r="I119" s="3">
+        <v>22.12</v>
+      </c>
+      <c r="J119" s="3">
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120" s="3">
+        <v>21.71</v>
+      </c>
+      <c r="J120" s="3">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>9</v>
+      </c>
+      <c r="I121" s="3">
+        <v>21.71</v>
+      </c>
+      <c r="J121" s="3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122" s="8">
+        <v>18</v>
+      </c>
+      <c r="I122" s="3">
+        <v>21.62</v>
+      </c>
+      <c r="J122" s="3">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="8">
+        <v>10</v>
+      </c>
+      <c r="I123" s="3">
+        <v>21.26</v>
+      </c>
+      <c r="J123" s="3">
+        <v>-31.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" s="8">
+        <v>19</v>
+      </c>
+      <c r="I124" s="3">
+        <v>21.34</v>
+      </c>
+      <c r="J124" s="3">
+        <v>-31.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125" s="8">
+        <v>29</v>
+      </c>
+      <c r="I125" s="3">
+        <v>21.33</v>
+      </c>
+      <c r="J125" s="3">
+        <v>-32.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="I126" s="3">
+        <v>21.11</v>
+      </c>
+      <c r="J126" s="3">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B127" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" s="8">
+        <v>10</v>
+      </c>
+      <c r="I127" s="3">
+        <v>21.31</v>
+      </c>
+      <c r="J127" s="3">
+        <v>-39.299999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128" s="8">
+        <v>19</v>
+      </c>
+      <c r="I128" s="3">
+        <v>21.33</v>
+      </c>
+      <c r="J128" s="3">
+        <v>-41.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129" s="8">
+        <v>29</v>
+      </c>
+      <c r="I129" s="3">
+        <v>21.35</v>
+      </c>
+      <c r="J129" s="3">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B130" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8">
+        <v>10</v>
+      </c>
+      <c r="I130" s="3">
+        <v>22.61</v>
+      </c>
+      <c r="J130" s="3">
+        <v>-57.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B131" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" s="8">
+        <v>19</v>
+      </c>
+      <c r="I131" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="J131" s="3">
+        <v>-52.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132" s="8">
+        <v>29</v>
+      </c>
+      <c r="I132" s="3">
+        <v>23.05</v>
+      </c>
+      <c r="J132" s="3">
+        <v>-66.400000000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" s="8">
+        <v>10</v>
+      </c>
+      <c r="I133" s="3">
+        <v>23.93</v>
+      </c>
+      <c r="J133" s="3">
+        <v>-65.900000000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B134" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134" s="8">
+        <v>19</v>
+      </c>
+      <c r="I134" s="3">
+        <v>24.21</v>
+      </c>
+      <c r="J134" s="3">
+        <v>-61.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="F135" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" s="8">
+        <v>29</v>
+      </c>
+      <c r="I135" s="3">
+        <v>24.05</v>
+      </c>
+      <c r="J135" s="3">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="8">
+        <v>10</v>
+      </c>
+      <c r="I136" s="3">
+        <v>24.62</v>
+      </c>
+      <c r="J136" s="3">
+        <v>-57.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" s="8">
+        <v>19</v>
+      </c>
+      <c r="I137" s="3">
+        <v>24.34</v>
+      </c>
+      <c r="J137" s="3">
+        <v>-56.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E138" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138" s="8">
+        <v>29</v>
+      </c>
+      <c r="I138" s="3">
+        <v>24.42</v>
+      </c>
+      <c r="J138" s="3">
+        <v>-56.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="E139" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" s="8">
+        <v>10</v>
+      </c>
+      <c r="I139" s="3">
+        <v>22.62</v>
+      </c>
+      <c r="J139" s="3">
+        <v>-51.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B140" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140" s="8">
+        <v>19</v>
+      </c>
+      <c r="I140" s="3">
+        <v>22.79</v>
+      </c>
+      <c r="J140" s="3">
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B141" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141" s="8">
+        <v>29</v>
+      </c>
+      <c r="I141" s="3">
+        <v>22.77</v>
+      </c>
+      <c r="J141" s="3">
+        <v>-53.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" s="8">
+        <v>10</v>
+      </c>
+      <c r="I142" s="3">
+        <v>22.27</v>
+      </c>
+      <c r="J142" s="3">
+        <v>-48.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143" s="8">
+        <v>19</v>
+      </c>
+      <c r="I143" s="3">
+        <v>22.19</v>
+      </c>
+      <c r="J143" s="3">
+        <v>-48.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="F144" s="7">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144" s="8">
+        <v>29</v>
+      </c>
+      <c r="I144" s="3">
+        <v>22.21</v>
+      </c>
+      <c r="J144" s="3">
+        <v>-48.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="7">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" s="8">
+        <v>4</v>
+      </c>
+      <c r="I145" s="3">
+        <v>21.41</v>
+      </c>
+      <c r="J145" s="3">
+        <v>-38.799999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B146" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="7">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146" s="8">
+        <v>8</v>
+      </c>
+      <c r="I146" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="J146" s="3">
+        <v>-40.700000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B147" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F147" s="7">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147" s="8">
+        <v>14</v>
+      </c>
+      <c r="I147" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="J147" s="3">
+        <v>-39.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B148" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+      <c r="I148" s="3">
+        <v>21.21</v>
+      </c>
+      <c r="J148" s="3">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B149" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="F149" s="7">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="8">
+        <v>4</v>
+      </c>
+      <c r="I149" s="3">
+        <v>21.41</v>
+      </c>
+      <c r="J149" s="3">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B150" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150" s="8">
+        <v>8</v>
+      </c>
+      <c r="I150" s="3">
+        <v>21.43</v>
+      </c>
+      <c r="J150" s="3">
+        <v>-42.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B151" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="7">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151" s="8">
+        <v>14</v>
+      </c>
+      <c r="I151" s="3">
+        <v>21.48</v>
+      </c>
+      <c r="J151" s="3">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F152" s="7">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" s="8">
+        <v>4</v>
+      </c>
+      <c r="I152" s="3">
+        <v>22.27</v>
+      </c>
+      <c r="J152" s="3">
+        <v>-48.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B153" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F153" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153" s="8">
+        <v>8</v>
+      </c>
+      <c r="I153" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="J153" s="3">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B154" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154" s="8">
+        <v>14</v>
+      </c>
+      <c r="I154" s="3">
+        <v>22.69</v>
+      </c>
+      <c r="J154" s="3">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B155" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" s="8">
+        <v>4</v>
+      </c>
+      <c r="I155" s="3">
+        <v>23.86</v>
+      </c>
+      <c r="J155" s="3">
+        <v>-55.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B156" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156" s="8">
+        <v>8</v>
+      </c>
+      <c r="I156" s="3">
+        <v>23.89</v>
+      </c>
+      <c r="J156" s="3">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B157" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157" s="8">
+        <v>14</v>
+      </c>
+      <c r="I157" s="3">
+        <v>24.09</v>
+      </c>
+      <c r="J157" s="3">
+        <v>-64.099999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B158" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E158" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" s="8">
+        <v>4</v>
+      </c>
+      <c r="I158" s="3">
+        <v>24.48</v>
+      </c>
+      <c r="J158" s="3">
+        <v>-64.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B159" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159" s="8">
+        <v>8</v>
+      </c>
+      <c r="I159" s="3">
+        <v>24.47</v>
+      </c>
+      <c r="J159" s="3">
+        <v>-68.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B160" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160" s="8">
+        <v>14</v>
+      </c>
+      <c r="I160" s="3">
+        <v>24.72</v>
+      </c>
+      <c r="J160" s="3">
+        <v>-58.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B161" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" s="8">
+        <v>4</v>
+      </c>
+      <c r="I161" s="3">
+        <v>24.11</v>
+      </c>
+      <c r="J161" s="3">
+        <v>-56.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B162" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162" s="8">
+        <v>8</v>
+      </c>
+      <c r="I162" s="3">
+        <v>24.38</v>
+      </c>
+      <c r="J162" s="3">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="E163" s="7">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163" s="8">
+        <v>14</v>
+      </c>
+      <c r="I163" s="3">
+        <v>24.55</v>
+      </c>
+      <c r="J163" s="3">
+        <v>-61.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B164" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" s="8">
+        <v>4</v>
+      </c>
+      <c r="I164" s="3">
+        <v>23.58</v>
+      </c>
+      <c r="J164" s="3">
+        <v>-56.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B165" t="s">
+        <v>184</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="E165" s="7">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165" s="8">
+        <v>8</v>
+      </c>
+      <c r="I165" s="3">
+        <v>23.49</v>
+      </c>
+      <c r="J165" s="3">
+        <v>-62.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B166" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E166" s="7">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166" s="8">
+        <v>14</v>
+      </c>
+      <c r="I166" s="3">
+        <v>23.49</v>
+      </c>
+      <c r="J166" s="3">
+        <v>-65.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332891D4-744D-2E47-BA2A-314E16CDB0F3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="B22" sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -6353,7 +8770,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6361,7 +8778,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -6369,82 +8786,178 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>110</v>
+      <c r="A9" t="s">
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>111</v>
+      <c r="A10" t="s">
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>112</v>
+      <c r="A11" t="s">
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8B5501-AD46-6B43-B1A4-70D595D79000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA7A57-FE28-744A-A394-269202D49CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="192">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -592,6 +592,24 @@
   </si>
   <si>
     <t>PI_t7_AMB_Tile_3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
 </sst>
 </file>
@@ -643,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,6 +671,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3762,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8742,6 +8763,432 @@
       </c>
       <c r="J166" s="3">
         <v>-65.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E167" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I167" s="3">
+        <v>25.38</v>
+      </c>
+      <c r="J167" s="3">
+        <v>-69.599999999999994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I168" s="3">
+        <v>25.38</v>
+      </c>
+      <c r="J168" s="3">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="7">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E169" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I169" s="3">
+        <v>25.48</v>
+      </c>
+      <c r="J169" s="3">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170" s="9"/>
+      <c r="I170" s="3">
+        <v>25.32</v>
+      </c>
+      <c r="J170" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G171">
+        <v>5</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I171" s="3">
+        <v>25.24</v>
+      </c>
+      <c r="J171" s="3">
+        <v>-42.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="7">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G172">
+        <v>6</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I172" s="3">
+        <v>25.21</v>
+      </c>
+      <c r="J172" s="3">
+        <v>-28.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="E173" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G173">
+        <v>7</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I173" s="3">
+        <v>25.25</v>
+      </c>
+      <c r="J173" s="3">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="G174">
+        <v>5</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I174" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="J174" s="3">
+        <v>-27.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="E175" s="7">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="F175" s="7">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I175" s="3">
+        <v>25.24</v>
+      </c>
+      <c r="J175" s="3">
+        <v>-13.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="7">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="E176" s="7">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="G176">
+        <v>7</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I176" s="3">
+        <v>25.26</v>
+      </c>
+      <c r="J176" s="3">
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="7">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="G177">
+        <v>4</v>
+      </c>
+      <c r="H177" s="9"/>
+      <c r="I177" s="3">
+        <v>24.64</v>
+      </c>
+      <c r="J177" s="3">
+        <v>-20.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I178" s="3">
+        <v>25.47</v>
+      </c>
+      <c r="J178" s="3">
+        <v>-41.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C179" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="7">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="F179" s="7">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I179" s="3">
+        <v>25.32</v>
+      </c>
+      <c r="J179" s="3">
+        <v>-32.700000000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C180" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="E180" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I180" s="3">
+        <v>25.47</v>
+      </c>
+      <c r="J180" s="3">
+        <v>-36.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA7A57-FE28-744A-A394-269202D49CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375FC77-716C-874F-AAC7-F93AA5BD6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -610,6 +610,72 @@
   </si>
   <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>Tn_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>Tn_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
   </si>
 </sst>
 </file>
@@ -3783,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K177" sqref="K177"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8770,7 +8836,7 @@
         <v>45090</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
@@ -8802,7 +8868,7 @@
         <v>45090</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -8834,7 +8900,7 @@
         <v>45090</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
@@ -8866,7 +8932,7 @@
         <v>45090</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
@@ -8983,7 +9049,7 @@
         <v>45090</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -9015,7 +9081,7 @@
         <v>45090</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
         <v>22</v>
@@ -9047,7 +9113,7 @@
         <v>45090</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -9079,7 +9145,7 @@
         <v>45090</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
@@ -9189,6 +9255,222 @@
       </c>
       <c r="J180" s="3">
         <v>-36.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B181" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B182" t="s">
+        <v>201</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B183" t="s">
+        <v>202</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B184" t="s">
+        <v>203</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+      <c r="H184" s="9"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="G185">
+        <v>5</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="G186">
+        <v>6</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C187" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187">
+        <v>7</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="G190">
+        <v>7</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B191" t="s">
+        <v>207</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="G191">
+        <v>4</v>
+      </c>
+      <c r="H191" s="9"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C192" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45091</v>
+      </c>
+      <c r="C194" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375FC77-716C-874F-AAC7-F93AA5BD6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E258794-4BF1-7341-AF1B-C49183BFF274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -3852,7 +3852,7 @@
   <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="J189" sqref="J189"/>
+      <selection activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9267,11 +9267,26 @@
       <c r="C181" t="s">
         <v>17</v>
       </c>
+      <c r="D181" s="7">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.4777777777777778</v>
+      </c>
       <c r="G181">
         <v>1</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>208</v>
+      </c>
+      <c r="I181" s="3">
+        <v>24.94</v>
+      </c>
+      <c r="J181" s="3">
+        <v>-40.1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -9284,11 +9299,26 @@
       <c r="C182" t="s">
         <v>18</v>
       </c>
+      <c r="D182" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E182" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0.48055555555555557</v>
+      </c>
       <c r="G182">
         <v>2</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>209</v>
+      </c>
+      <c r="I182" s="3">
+        <v>25.01</v>
+      </c>
+      <c r="J182" s="3">
+        <v>-38.200000000000003</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -9301,11 +9331,26 @@
       <c r="C183" t="s">
         <v>19</v>
       </c>
+      <c r="D183" s="7">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F183" s="7">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="I183" s="3">
+        <v>24.89</v>
+      </c>
+      <c r="J183" s="3">
+        <v>-40.200000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -9318,10 +9363,25 @@
       <c r="C184" t="s">
         <v>20</v>
       </c>
+      <c r="D184" s="7">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E184" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="G184">
         <v>4</v>
       </c>
       <c r="H184" s="9"/>
+      <c r="I184" s="3">
+        <v>24.68</v>
+      </c>
+      <c r="J184" s="3">
+        <v>-38.4</v>
+      </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
@@ -9330,11 +9390,26 @@
       <c r="C185" t="s">
         <v>25</v>
       </c>
+      <c r="D185" s="7">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0.47291666666666665</v>
+      </c>
       <c r="G185">
         <v>5</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="I185" s="3">
+        <v>24.62</v>
+      </c>
+      <c r="J185" s="3">
+        <v>-41.3</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -9344,11 +9419,26 @@
       <c r="C186" t="s">
         <v>26</v>
       </c>
+      <c r="D186" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="F186" s="7">
+        <v>0.47361111111111115</v>
+      </c>
       <c r="G186">
         <v>6</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>212</v>
+      </c>
+      <c r="I186" s="3">
+        <v>24.85</v>
+      </c>
+      <c r="J186" s="3">
+        <v>-35.799999999999997</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -9358,11 +9448,26 @@
       <c r="C187" t="s">
         <v>27</v>
       </c>
+      <c r="D187" s="7">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F187" s="7">
+        <v>0.47430555555555554</v>
+      </c>
       <c r="G187">
         <v>7</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>213</v>
+      </c>
+      <c r="I187" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="J187" s="3">
+        <v>-34.700000000000003</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -9375,11 +9480,26 @@
       <c r="C188" t="s">
         <v>21</v>
       </c>
+      <c r="D188" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0.55069444444444449</v>
+      </c>
       <c r="G188">
         <v>5</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="I188" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="J188" s="3">
+        <v>-49.7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -9392,11 +9512,26 @@
       <c r="C189" t="s">
         <v>22</v>
       </c>
+      <c r="D189" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="F189" s="7">
+        <v>0.55347222222222225</v>
+      </c>
       <c r="G189">
         <v>6</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>212</v>
+      </c>
+      <c r="I189" s="3">
+        <v>24.85</v>
+      </c>
+      <c r="J189" s="3">
+        <v>-52.4</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -9409,11 +9544,26 @@
       <c r="C190" t="s">
         <v>23</v>
       </c>
+      <c r="D190" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="F190" s="7">
+        <v>0.55694444444444446</v>
+      </c>
       <c r="G190">
         <v>7</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>213</v>
+      </c>
+      <c r="I190" s="3">
+        <v>24.92</v>
+      </c>
+      <c r="J190" s="3">
+        <v>-58.7</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -9426,10 +9576,25 @@
       <c r="C191" t="s">
         <v>24</v>
       </c>
+      <c r="D191" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="F191" s="7">
+        <v>0.56041666666666667</v>
+      </c>
       <c r="G191">
         <v>4</v>
       </c>
       <c r="H191" s="9"/>
+      <c r="I191" s="3">
+        <v>24.71</v>
+      </c>
+      <c r="J191" s="3">
+        <v>-55.7</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
@@ -9438,39 +9603,84 @@
       <c r="C192" t="s">
         <v>29</v>
       </c>
+      <c r="D192" s="7">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="F192" s="7">
+        <v>0.54305555555555551</v>
+      </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="3">
+        <v>24.85</v>
+      </c>
+      <c r="J192" s="3">
+        <v>-49.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45091</v>
       </c>
       <c r="C193" t="s">
         <v>30</v>
       </c>
+      <c r="D193" s="7">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0.54583333333333328</v>
+      </c>
       <c r="G193">
         <v>2</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="3">
+        <v>24.56</v>
+      </c>
+      <c r="J193" s="3">
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45091</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
       </c>
+      <c r="D194" s="7">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="F194" s="7">
+        <v>0.54722222222222217</v>
+      </c>
       <c r="G194">
         <v>3</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="I194" s="3">
+        <v>24.61</v>
+      </c>
+      <c r="J194" s="3">
+        <v>-46.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E258794-4BF1-7341-AF1B-C49183BFF274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67612C3-4CC5-6748-95AA-2356BACBDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -676,6 +677,48 @@
   </si>
   <si>
     <t>L6</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>Tn_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
   </si>
 </sst>
 </file>
@@ -727,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -740,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3849,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="J195" sqref="J195"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9683,6 +9727,430 @@
         <v>-46.6</v>
       </c>
     </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B195" t="s">
+        <v>214</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="7">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I195" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="J195" s="3">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B196" t="s">
+        <v>215</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="7">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F196" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I196" s="3">
+        <v>24.67</v>
+      </c>
+      <c r="J196" s="3">
+        <v>-74.099999999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B197" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I197" s="3">
+        <v>24.74</v>
+      </c>
+      <c r="J197" s="3">
+        <v>-71.400000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B198" t="s">
+        <v>217</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="7">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="E198" s="7">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G198">
+        <v>4</v>
+      </c>
+      <c r="I198" s="3">
+        <v>24.43</v>
+      </c>
+      <c r="J198" s="3">
+        <v>-68.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G199">
+        <v>5</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I199" s="3">
+        <v>24</v>
+      </c>
+      <c r="J199" s="3">
+        <v>-64.599999999999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="7">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="F200" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="G200">
+        <v>6</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I200" s="3">
+        <v>23.99</v>
+      </c>
+      <c r="J200" s="3">
+        <v>-64.400000000000006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="F201" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="G201">
+        <v>7</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I201" s="3">
+        <v>24</v>
+      </c>
+      <c r="J201" s="3">
+        <v>-62.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="7">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F202" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="G202">
+        <v>5</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I202" s="3">
+        <v>25.19</v>
+      </c>
+      <c r="J202" s="3">
+        <v>-72.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="7">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I203" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="J203" s="3">
+        <v>-69.900000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" s="7">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="E204" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G204">
+        <v>7</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I204" s="3">
+        <v>25.17</v>
+      </c>
+      <c r="J204" s="3">
+        <v>-63.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="10">
+        <v>45092</v>
+      </c>
+      <c r="B205" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="7">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G205">
+        <v>4</v>
+      </c>
+      <c r="I205" s="3">
+        <v>24.85</v>
+      </c>
+      <c r="J205" s="3">
+        <v>-67.099999999999994</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C206" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="7">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="E206" s="7">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I206" s="3">
+        <v>24.45</v>
+      </c>
+      <c r="J206" s="3">
+        <v>-63.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C207" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207" s="7">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F207" s="7">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I207" s="3">
+        <v>24.33</v>
+      </c>
+      <c r="J207" s="3">
+        <v>-62.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="10">
+        <v>45092</v>
+      </c>
+      <c r="C208" t="s">
+        <v>31</v>
+      </c>
+      <c r="D208" s="7">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I208" s="3">
+        <v>24.37</v>
+      </c>
+      <c r="J208" s="3">
+        <v>-59.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9690,6 +10158,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0BE04F-14EC-884D-94D0-8706D1FECF97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332891D4-744D-2E47-BA2A-314E16CDB0F3}">
   <dimension ref="A1:B25"/>
   <sheetViews>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67612C3-4CC5-6748-95AA-2356BACBDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E42C7-6C7A-5048-8D87-9C67F744CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Corrected" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="226">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -520,15 +518,6 @@
     <t>PI_t7_LOW_Tile_3</t>
   </si>
   <si>
-    <t>PI_t8_LOW_Tile_1</t>
-  </si>
-  <si>
-    <t>PI_t8_LOW_Tile_2</t>
-  </si>
-  <si>
-    <t>PI_t8_LOW_Tile_3</t>
-  </si>
-  <si>
     <t>PI_t1_AMB_Tile_1</t>
   </si>
   <si>
@@ -719,6 +708,9 @@
   </si>
   <si>
     <t>A9</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -783,7 +775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3893,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8179,7 +8173,7 @@
         <v>45077</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -8211,7 +8205,7 @@
         <v>45077</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
@@ -8243,7 +8237,7 @@
         <v>45077</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -8275,7 +8269,7 @@
         <v>45077</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
@@ -8304,7 +8298,7 @@
         <v>45077</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -8336,7 +8330,7 @@
         <v>45077</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
@@ -8368,7 +8362,7 @@
         <v>45077</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
@@ -8400,7 +8394,7 @@
         <v>45077</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
@@ -8432,7 +8426,7 @@
         <v>45077</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
@@ -8464,7 +8458,7 @@
         <v>45077</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -8496,7 +8490,7 @@
         <v>45077</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -8528,7 +8522,7 @@
         <v>45077</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
@@ -8560,7 +8554,7 @@
         <v>45077</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
@@ -8592,7 +8586,7 @@
         <v>45077</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -8624,7 +8618,7 @@
         <v>45077</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
         <v>18</v>
@@ -8656,7 +8650,7 @@
         <v>45077</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
         <v>19</v>
@@ -8688,7 +8682,7 @@
         <v>45077</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
@@ -8720,7 +8714,7 @@
         <v>45077</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
         <v>18</v>
@@ -8752,7 +8746,7 @@
         <v>45077</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
         <v>19</v>
@@ -8784,7 +8778,7 @@
         <v>45077</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
         <v>17</v>
@@ -8816,7 +8810,7 @@
         <v>45077</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -8848,7 +8842,7 @@
         <v>45077</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C166" t="s">
         <v>19</v>
@@ -8880,7 +8874,7 @@
         <v>45090</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
@@ -8898,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I167" s="3">
         <v>25.38</v>
@@ -8912,7 +8906,7 @@
         <v>45090</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -8930,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I168" s="3">
         <v>25.38</v>
@@ -8944,7 +8938,7 @@
         <v>45090</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
@@ -8962,7 +8956,7 @@
         <v>3</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I169" s="3">
         <v>25.48</v>
@@ -8976,7 +8970,7 @@
         <v>45090</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
@@ -9021,7 +9015,7 @@
         <v>5</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I171" s="3">
         <v>25.24</v>
@@ -9050,7 +9044,7 @@
         <v>6</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I172" s="3">
         <v>25.21</v>
@@ -9079,7 +9073,7 @@
         <v>7</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I173" s="3">
         <v>25.25</v>
@@ -9093,7 +9087,7 @@
         <v>45090</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -9111,7 +9105,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I174" s="3">
         <v>25.3</v>
@@ -9125,7 +9119,7 @@
         <v>45090</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
         <v>22</v>
@@ -9143,7 +9137,7 @@
         <v>6</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I175" s="3">
         <v>25.24</v>
@@ -9157,7 +9151,7 @@
         <v>45090</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -9175,7 +9169,7 @@
         <v>7</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I176" s="3">
         <v>25.26</v>
@@ -9189,7 +9183,7 @@
         <v>45090</v>
       </c>
       <c r="B177" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
@@ -9234,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I178" s="3">
         <v>25.47</v>
@@ -9263,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I179" s="3">
         <v>25.32</v>
@@ -9292,7 +9286,7 @@
         <v>3</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I180" s="3">
         <v>25.47</v>
@@ -9306,7 +9300,7 @@
         <v>45091</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
@@ -9324,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I181" s="3">
         <v>24.94</v>
@@ -9338,7 +9332,7 @@
         <v>45091</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
         <v>18</v>
@@ -9356,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I182" s="3">
         <v>25.01</v>
@@ -9370,7 +9364,7 @@
         <v>45091</v>
       </c>
       <c r="B183" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
         <v>19</v>
@@ -9388,7 +9382,7 @@
         <v>3</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I183" s="3">
         <v>24.89</v>
@@ -9402,7 +9396,7 @@
         <v>45091</v>
       </c>
       <c r="B184" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
         <v>20</v>
@@ -9447,7 +9441,7 @@
         <v>5</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I185" s="3">
         <v>24.62</v>
@@ -9476,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I186" s="3">
         <v>24.85</v>
@@ -9505,7 +9499,7 @@
         <v>7</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I187" s="3">
         <v>24.8</v>
@@ -9519,7 +9513,7 @@
         <v>45091</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C188" t="s">
         <v>21</v>
@@ -9537,7 +9531,7 @@
         <v>5</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I188" s="3">
         <v>24.7</v>
@@ -9551,7 +9545,7 @@
         <v>45091</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
         <v>22</v>
@@ -9569,7 +9563,7 @@
         <v>6</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I189" s="3">
         <v>24.85</v>
@@ -9583,7 +9577,7 @@
         <v>45091</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -9601,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I190" s="3">
         <v>24.92</v>
@@ -9615,7 +9609,7 @@
         <v>45091</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -9660,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I192" s="3">
         <v>24.85</v>
@@ -9689,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I193" s="3">
         <v>24.56</v>
@@ -9718,7 +9712,7 @@
         <v>3</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I194" s="3">
         <v>24.61</v>
@@ -9728,11 +9722,11 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="10">
+      <c r="A195" s="1">
         <v>45092</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
@@ -9750,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I195" s="3">
         <v>24.99</v>
@@ -9760,11 +9754,11 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="10">
+      <c r="A196" s="1">
         <v>45092</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
@@ -9782,7 +9776,7 @@
         <v>2</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I196" s="3">
         <v>24.67</v>
@@ -9792,11 +9786,11 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="10">
+      <c r="A197" s="1">
         <v>45092</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
         <v>19</v>
@@ -9814,7 +9808,7 @@
         <v>3</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I197" s="3">
         <v>24.74</v>
@@ -9824,11 +9818,11 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="10">
+      <c r="A198" s="1">
         <v>45092</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
         <v>20</v>
@@ -9853,7 +9847,7 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="10">
+      <c r="A199" s="1">
         <v>45092</v>
       </c>
       <c r="C199" t="s">
@@ -9872,7 +9866,7 @@
         <v>5</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I199" s="3">
         <v>24</v>
@@ -9882,7 +9876,7 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="10">
+      <c r="A200" s="1">
         <v>45092</v>
       </c>
       <c r="C200" t="s">
@@ -9901,7 +9895,7 @@
         <v>6</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I200" s="3">
         <v>23.99</v>
@@ -9911,7 +9905,7 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="10">
+      <c r="A201" s="1">
         <v>45092</v>
       </c>
       <c r="C201" t="s">
@@ -9930,7 +9924,7 @@
         <v>7</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I201" s="3">
         <v>24</v>
@@ -9940,11 +9934,11 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="10">
+      <c r="A202" s="1">
         <v>45092</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C202" t="s">
         <v>21</v>
@@ -9962,7 +9956,7 @@
         <v>5</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I202" s="3">
         <v>25.19</v>
@@ -9972,11 +9966,11 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="10">
+      <c r="A203" s="1">
         <v>45092</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
         <v>22</v>
@@ -9994,7 +9988,7 @@
         <v>6</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I203" s="3">
         <v>24.99</v>
@@ -10004,11 +9998,11 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="10">
+      <c r="A204" s="1">
         <v>45092</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C204" t="s">
         <v>23</v>
@@ -10026,7 +10020,7 @@
         <v>7</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I204" s="3">
         <v>25.17</v>
@@ -10036,11 +10030,11 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="10">
+      <c r="A205" s="1">
         <v>45092</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -10065,7 +10059,7 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="10">
+      <c r="A206" s="1">
         <v>45092</v>
       </c>
       <c r="C206" t="s">
@@ -10084,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I206" s="3">
         <v>24.45</v>
@@ -10094,7 +10088,7 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="10">
+      <c r="A207" s="1">
         <v>45092</v>
       </c>
       <c r="C207" t="s">
@@ -10113,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I207" s="3">
         <v>24.33</v>
@@ -10123,7 +10117,7 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="10">
+      <c r="A208" s="1">
         <v>45092</v>
       </c>
       <c r="C208" t="s">
@@ -10142,244 +10136,443 @@
         <v>3</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I208" s="3">
         <v>24.37</v>
       </c>
       <c r="J208" s="3">
         <v>-59.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B209" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E209" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="F209" s="7">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209" s="8">
+        <v>2</v>
+      </c>
+      <c r="I209" s="3">
+        <v>-34</v>
+      </c>
+      <c r="J209" s="3">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B210" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E210" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210" s="8">
+        <v>6</v>
+      </c>
+      <c r="I210" s="3">
+        <v>-46.3</v>
+      </c>
+      <c r="J210" s="3">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B211" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="7">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" s="8">
+        <v>18</v>
+      </c>
+      <c r="I211" s="3">
+        <v>-51</v>
+      </c>
+      <c r="J211" s="3">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B212" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F212" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
+      <c r="H212" s="10"/>
+      <c r="I212" s="3">
+        <v>-45.3</v>
+      </c>
+      <c r="J212" s="3">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="G213">
+        <v>5</v>
+      </c>
+      <c r="H213" s="10">
+        <v>9</v>
+      </c>
+      <c r="I213" s="3">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="J213" s="3">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="7">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G214">
+        <v>6</v>
+      </c>
+      <c r="H214" s="10">
+        <v>13</v>
+      </c>
+      <c r="I214" s="3">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="J214" s="3">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="7">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G215">
+        <v>7</v>
+      </c>
+      <c r="H215" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I215" s="3">
+        <v>-36.6</v>
+      </c>
+      <c r="J215" s="3">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C216" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G216">
+        <v>5</v>
+      </c>
+      <c r="H216" s="10">
+        <v>9</v>
+      </c>
+      <c r="I216" s="3">
+        <v>-60.3</v>
+      </c>
+      <c r="J216" s="3">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="7">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="G217">
+        <v>6</v>
+      </c>
+      <c r="H217" s="10">
+        <v>13</v>
+      </c>
+      <c r="I217" s="3">
+        <v>-53.5</v>
+      </c>
+      <c r="J217" s="3">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G218">
+        <v>7</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I218" s="3">
+        <v>-49</v>
+      </c>
+      <c r="J218" s="3">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B219" t="s">
+        <v>196</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E219" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G219">
+        <v>4</v>
+      </c>
+      <c r="H219" s="10"/>
+      <c r="I219" s="3">
+        <v>-49.5</v>
+      </c>
+      <c r="J219" s="3">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C220" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="7">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220" s="8">
+        <v>2</v>
+      </c>
+      <c r="I220" s="3">
+        <v>-49.5</v>
+      </c>
+      <c r="J220" s="3">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" s="7">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="F221" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="H221" s="8">
+        <v>6</v>
+      </c>
+      <c r="I221" s="3">
+        <v>-42.1</v>
+      </c>
+      <c r="J221" s="3">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45096</v>
+      </c>
+      <c r="C222" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222" s="8">
+        <v>18</v>
+      </c>
+      <c r="I222" s="3">
+        <v>-43.6</v>
+      </c>
+      <c r="J222" s="3">
+        <v>25.65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0BE04F-14EC-884D-94D0-8706D1FECF97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332891D4-744D-2E47-BA2A-314E16CDB0F3}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E42C7-6C7A-5048-8D87-9C67F744CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B71BE3-D1D4-6F44-B419-E366B4C98AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="234">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -711,6 +711,30 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>T2_t1_ELOW_blank_02</t>
   </si>
 </sst>
 </file>
@@ -3887,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="J237" sqref="J237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10150,7 +10174,7 @@
         <v>45096</v>
       </c>
       <c r="B209" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -10171,10 +10195,10 @@
         <v>2</v>
       </c>
       <c r="I209" s="3">
+        <v>25.77</v>
+      </c>
+      <c r="J209" s="3">
         <v>-34</v>
-      </c>
-      <c r="J209" s="3">
-        <v>25.77</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -10182,7 +10206,7 @@
         <v>45096</v>
       </c>
       <c r="B210" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -10203,10 +10227,10 @@
         <v>6</v>
       </c>
       <c r="I210" s="3">
+        <v>25.53</v>
+      </c>
+      <c r="J210" s="3">
         <v>-46.3</v>
-      </c>
-      <c r="J210" s="3">
-        <v>25.53</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -10214,7 +10238,7 @@
         <v>45096</v>
       </c>
       <c r="B211" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C211" t="s">
         <v>19</v>
@@ -10235,10 +10259,10 @@
         <v>18</v>
       </c>
       <c r="I211" s="3">
+        <v>25.74</v>
+      </c>
+      <c r="J211" s="3">
         <v>-51</v>
-      </c>
-      <c r="J211" s="3">
-        <v>25.74</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -10246,7 +10270,7 @@
         <v>45096</v>
       </c>
       <c r="B212" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -10265,10 +10289,10 @@
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="3">
+        <v>25.41</v>
+      </c>
+      <c r="J212" s="3">
         <v>-45.3</v>
-      </c>
-      <c r="J212" s="3">
-        <v>25.41</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -10294,10 +10318,10 @@
         <v>9</v>
       </c>
       <c r="I213" s="3">
+        <v>24.92</v>
+      </c>
+      <c r="J213" s="3">
         <v>-36.799999999999997</v>
-      </c>
-      <c r="J213" s="3">
-        <v>24.92</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -10323,10 +10347,10 @@
         <v>13</v>
       </c>
       <c r="I214" s="3">
+        <v>24.91</v>
+      </c>
+      <c r="J214" s="3">
         <v>-36.200000000000003</v>
-      </c>
-      <c r="J214" s="3">
-        <v>24.91</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -10352,10 +10376,10 @@
         <v>225</v>
       </c>
       <c r="I215" s="3">
+        <v>25.02</v>
+      </c>
+      <c r="J215" s="3">
         <v>-36.6</v>
-      </c>
-      <c r="J215" s="3">
-        <v>25.02</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -10363,7 +10387,7 @@
         <v>45096</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
@@ -10384,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="I216" s="3">
+        <v>26.44</v>
+      </c>
+      <c r="J216" s="3">
         <v>-60.3</v>
-      </c>
-      <c r="J216" s="3">
-        <v>26.44</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -10395,7 +10419,7 @@
         <v>45096</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C217" t="s">
         <v>22</v>
@@ -10416,10 +10440,10 @@
         <v>13</v>
       </c>
       <c r="I217" s="3">
+        <v>26.41</v>
+      </c>
+      <c r="J217" s="3">
         <v>-53.5</v>
-      </c>
-      <c r="J217" s="3">
-        <v>26.41</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -10427,7 +10451,7 @@
         <v>45096</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C218" t="s">
         <v>23</v>
@@ -10448,10 +10472,10 @@
         <v>225</v>
       </c>
       <c r="I218" s="3">
+        <v>26.05</v>
+      </c>
+      <c r="J218" s="3">
         <v>-49</v>
-      </c>
-      <c r="J218" s="3">
-        <v>26.05</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -10459,7 +10483,7 @@
         <v>45096</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -10478,10 +10502,10 @@
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="3">
+        <v>25.88</v>
+      </c>
+      <c r="J219" s="3">
         <v>-49.5</v>
-      </c>
-      <c r="J219" s="3">
-        <v>25.88</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -10507,10 +10531,10 @@
         <v>2</v>
       </c>
       <c r="I220" s="3">
+        <v>25.66</v>
+      </c>
+      <c r="J220" s="3">
         <v>-49.5</v>
-      </c>
-      <c r="J220" s="3">
-        <v>25.66</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
@@ -10536,10 +10560,10 @@
         <v>6</v>
       </c>
       <c r="I221" s="3">
+        <v>25.63</v>
+      </c>
+      <c r="J221" s="3">
         <v>-42.1</v>
-      </c>
-      <c r="J221" s="3">
-        <v>25.63</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -10565,10 +10589,434 @@
         <v>18</v>
       </c>
       <c r="I222" s="3">
+        <v>25.65</v>
+      </c>
+      <c r="J222" s="3">
         <v>-43.6</v>
       </c>
-      <c r="J222" s="3">
-        <v>25.65</v>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" s="8">
+        <v>1</v>
+      </c>
+      <c r="I223" s="3">
+        <v>26.268999999999998</v>
+      </c>
+      <c r="J223" s="3">
+        <v>-72.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="7">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="E224" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F224" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224" s="8">
+        <v>3</v>
+      </c>
+      <c r="I224" s="3">
+        <v>26.065000000000001</v>
+      </c>
+      <c r="J224" s="3">
+        <v>-69.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="7">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="F225" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" s="8">
+        <v>10</v>
+      </c>
+      <c r="I225" s="3">
+        <v>26.152000000000001</v>
+      </c>
+      <c r="J225" s="3">
+        <v>-73.900000000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F226" s="7">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="G226">
+        <v>4</v>
+      </c>
+      <c r="I226" s="3">
+        <v>25.56</v>
+      </c>
+      <c r="J226" s="3">
+        <v>-69.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C227" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="7">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G227">
+        <v>5</v>
+      </c>
+      <c r="H227" s="8">
+        <v>11</v>
+      </c>
+      <c r="I227" s="3">
+        <v>25.49</v>
+      </c>
+      <c r="J227" s="3">
+        <v>-60.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F228" s="7">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="G228">
+        <v>6</v>
+      </c>
+      <c r="H228" s="8">
+        <v>19</v>
+      </c>
+      <c r="I228" s="3">
+        <v>25.47</v>
+      </c>
+      <c r="J228" s="3">
+        <v>-64.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229" s="7">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="F229" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G229">
+        <v>7</v>
+      </c>
+      <c r="H229" s="8">
+        <v>29</v>
+      </c>
+      <c r="I229" s="3">
+        <v>25.454999999999998</v>
+      </c>
+      <c r="J229" s="3">
+        <v>-73.599999999999994</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="E230" s="7">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F230" s="7">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G230">
+        <v>5</v>
+      </c>
+      <c r="H230" s="8">
+        <v>11</v>
+      </c>
+      <c r="I230" s="3">
+        <v>26.727</v>
+      </c>
+      <c r="J230" s="3">
+        <v>-61.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="7">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G231">
+        <v>6</v>
+      </c>
+      <c r="H231" s="8">
+        <v>19</v>
+      </c>
+      <c r="I231" s="3">
+        <v>26.608000000000001</v>
+      </c>
+      <c r="J231" s="3">
+        <v>-63.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" s="7">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E232" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F232" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G232">
+        <v>7</v>
+      </c>
+      <c r="H232" s="8">
+        <v>29</v>
+      </c>
+      <c r="I232" s="3">
+        <v>26.98</v>
+      </c>
+      <c r="J232" s="3">
+        <v>-71.400000000000006</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E233" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F233" s="7">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G233">
+        <v>4</v>
+      </c>
+      <c r="I233" s="3">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="J233" s="3">
+        <v>-59.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C234" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" s="7">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="E234" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" s="8">
+        <v>1</v>
+      </c>
+      <c r="I234" s="3">
+        <v>26.187999999999999</v>
+      </c>
+      <c r="J234" s="3">
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C235" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E235" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="F235" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="G235">
+        <v>2</v>
+      </c>
+      <c r="H235" s="8">
+        <v>3</v>
+      </c>
+      <c r="I235" s="3">
+        <v>26.123000000000001</v>
+      </c>
+      <c r="J235" s="3">
+        <v>-49.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45097</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" s="7">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="E236" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F236" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236" s="8">
+        <v>10</v>
+      </c>
+      <c r="I236" s="3">
+        <v>26.225999999999999</v>
+      </c>
+      <c r="J236" s="3">
+        <v>-47.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
+++ b/Data/Spring_2023/Diving_log_Spring_2023_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B71BE3-D1D4-6F44-B419-E366B4C98AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76717529-2A63-274D-BE83-822E492463A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{AC65A032-FAEB-0942-B0EC-C9C433D5231F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="250">
   <si>
     <t>Diving_Date</t>
   </si>
@@ -735,6 +735,54 @@
   </si>
   <si>
     <t>T2_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>T2_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>T2_t1_AMB_blank_02</t>
   </si>
 </sst>
 </file>
@@ -3911,10 +3959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096E2FE-6459-2147-9706-235887F73F2A}">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="J237" sqref="J237"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10600,7 +10648,7 @@
         <v>45097</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C223" t="s">
         <v>17</v>
@@ -10632,7 +10680,7 @@
         <v>45097</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C224" t="s">
         <v>18</v>
@@ -10664,7 +10712,7 @@
         <v>45097</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C225" t="s">
         <v>19</v>
@@ -10696,7 +10744,7 @@
         <v>45097</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s">
         <v>20</v>
@@ -10812,7 +10860,7 @@
         <v>45097</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -10844,7 +10892,7 @@
         <v>45097</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C231" t="s">
         <v>22</v>
@@ -10876,7 +10924,7 @@
         <v>45097</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C232" t="s">
         <v>23</v>
@@ -10908,7 +10956,7 @@
         <v>45097</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C233" t="s">
         <v>24</v>
@@ -11017,6 +11065,430 @@
       </c>
       <c r="J236" s="3">
         <v>-47.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B237" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E237" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237" s="8">
+        <v>4</v>
+      </c>
+      <c r="I237" s="3">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="J237" s="3">
+        <v>-66.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B238" t="s">
+        <v>243</v>
+      </c>
+      <c r="C238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E238" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F238" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238" s="8">
+        <v>7</v>
+      </c>
+      <c r="I238" s="3">
+        <v>26.512</v>
+      </c>
+      <c r="J238" s="3">
+        <v>-73.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B239" t="s">
+        <v>244</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="7">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="E239" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F239" s="7">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239" s="8">
+        <v>8</v>
+      </c>
+      <c r="I239" s="3">
+        <v>26.968</v>
+      </c>
+      <c r="J239" s="3">
+        <v>-71.400000000000006</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B240" t="s">
+        <v>245</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" s="7">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E240" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="F240" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G240">
+        <v>4</v>
+      </c>
+      <c r="I240" s="3">
+        <v>26.032</v>
+      </c>
+      <c r="J240" s="3">
+        <v>-68.400000000000006</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C241" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E241" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F241" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+      <c r="H241" s="8">
+        <v>12</v>
+      </c>
+      <c r="I241" s="3">
+        <v>25.654</v>
+      </c>
+      <c r="J241" s="3">
+        <v>-65.3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" s="7">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E242" s="7">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F242" s="7">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G242">
+        <v>6</v>
+      </c>
+      <c r="H242" s="8">
+        <v>14</v>
+      </c>
+      <c r="I242" s="3">
+        <v>25.637</v>
+      </c>
+      <c r="J242" s="3">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C243" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243" s="7">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="F243" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G243">
+        <v>7</v>
+      </c>
+      <c r="H243" s="8">
+        <v>28</v>
+      </c>
+      <c r="I243" s="3">
+        <v>26.672999999999998</v>
+      </c>
+      <c r="J243" s="3">
+        <v>-64.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E244" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="F244" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G244">
+        <v>5</v>
+      </c>
+      <c r="H244" s="8">
+        <v>12</v>
+      </c>
+      <c r="I244" s="3">
+        <v>27.088000000000001</v>
+      </c>
+      <c r="J244" s="3">
+        <v>-71.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="E245" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F245" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="G245">
+        <v>6</v>
+      </c>
+      <c r="H245" s="8">
+        <v>14</v>
+      </c>
+      <c r="I245" s="3">
+        <v>27.033999999999999</v>
+      </c>
+      <c r="J245" s="3">
+        <v>-65.599999999999994</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" t="s">
+        <v>23</v>
+      </c>
+      <c r="D246" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E246" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F246" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G246">
+        <v>7</v>
+      </c>
+      <c r="H246" s="8">
+        <v>28</v>
+      </c>
+      <c r="I246" s="3">
+        <v>27.093</v>
+      </c>
+      <c r="J246" s="3">
+        <v>-75.7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247" s="7">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E247" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="F247" s="7">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G247">
+        <v>4</v>
+      </c>
+      <c r="I247" s="3">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="J247" s="3">
+        <v>-68.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C248" t="s">
+        <v>29</v>
+      </c>
+      <c r="D248" s="7">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="E248" s="7">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="F248" s="7">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248" s="8">
+        <v>4</v>
+      </c>
+      <c r="I248" s="3">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J248" s="3">
+        <v>-70.400000000000006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C249" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
+      <c r="H249" s="8">
+        <v>7</v>
+      </c>
+      <c r="I249" s="3">
+        <v>26.375</v>
+      </c>
+      <c r="J249" s="3">
+        <v>-72.900000000000006</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C250" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F250" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250" s="8">
+        <v>8</v>
+      </c>
+      <c r="I250" s="3">
+        <v>26.35</v>
+      </c>
+      <c r="J250" s="3">
+        <v>-71.099999999999994</v>
       </c>
     </row>
   </sheetData>
